--- a/results/comparaison/retardance_prism.xlsx
+++ b/results/comparaison/retardance_prism.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:BI3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:61">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -403,110 +403,507 @@
       <c r="K1" s="1">
         <v>9</v>
       </c>
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1">
+        <v>59</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:61">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.414821408868127</v>
+        <v>13.47853527447433</v>
       </c>
       <c r="C2">
-        <v>10.98948690506197</v>
+        <v>11.88165438313961</v>
       </c>
       <c r="D2">
-        <v>12.2868016994379</v>
+        <v>24.89611493095783</v>
       </c>
       <c r="E2">
-        <v>12.14895003654783</v>
+        <v>7.234128451706695</v>
       </c>
       <c r="F2">
-        <v>20.11033634193168</v>
+        <v>8.749552454551045</v>
       </c>
       <c r="G2">
-        <v>12.74327193309177</v>
+        <v>13.14541555823446</v>
       </c>
       <c r="H2">
-        <v>11.6380798926037</v>
+        <v>8.261604934458974</v>
       </c>
       <c r="I2">
-        <v>27.36495736969764</v>
+        <v>9.395393355140889</v>
       </c>
       <c r="J2">
-        <v>15.16409589732232</v>
+        <v>7.314845719301802</v>
       </c>
       <c r="K2">
-        <v>12.08910919969286</v>
+        <v>15.84998366353161</v>
+      </c>
+      <c r="L2">
+        <v>10.87441407993136</v>
+      </c>
+      <c r="M2">
+        <v>10.58306757589077</v>
+      </c>
+      <c r="N2">
+        <v>6.330346058914514</v>
+      </c>
+      <c r="O2">
+        <v>6.016977466167297</v>
+      </c>
+      <c r="P2">
+        <v>5.540476941028681</v>
+      </c>
+      <c r="Q2">
+        <v>7.572250821205815</v>
+      </c>
+      <c r="R2">
+        <v>8.2942658604983</v>
+      </c>
+      <c r="S2">
+        <v>15.28188615620088</v>
+      </c>
+      <c r="T2">
+        <v>15.86533527196804</v>
+      </c>
+      <c r="U2">
+        <v>10.74073297561529</v>
+      </c>
+      <c r="V2">
+        <v>8.209468328363965</v>
+      </c>
+      <c r="W2">
+        <v>13.4896888187189</v>
+      </c>
+      <c r="X2">
+        <v>17.99954311490617</v>
+      </c>
+      <c r="Y2">
+        <v>9.321923579732251</v>
+      </c>
+      <c r="Z2">
+        <v>24.88953121727813</v>
+      </c>
+      <c r="AA2">
+        <v>29.32904935736281</v>
+      </c>
+      <c r="AB2">
+        <v>14.48646397091036</v>
+      </c>
+      <c r="AC2">
+        <v>7.356010973973901</v>
+      </c>
+      <c r="AD2">
+        <v>5.749616240080896</v>
+      </c>
+      <c r="AE2">
+        <v>9.04996774465438</v>
+      </c>
+      <c r="AF2">
+        <v>11.56383073407232</v>
+      </c>
+      <c r="AG2">
+        <v>11.29700648601848</v>
+      </c>
+      <c r="AH2">
+        <v>16.80834195476583</v>
+      </c>
+      <c r="AI2">
+        <v>12.56276171338915</v>
+      </c>
+      <c r="AJ2">
+        <v>12.56442527991037</v>
+      </c>
+      <c r="AK2">
+        <v>25.69780059979063</v>
+      </c>
+      <c r="AL2">
+        <v>21.68019463524646</v>
+      </c>
+      <c r="AM2">
+        <v>16.95916050414604</v>
+      </c>
+      <c r="AN2">
+        <v>19.55708407950866</v>
+      </c>
+      <c r="AO2">
+        <v>13.62934880251175</v>
+      </c>
+      <c r="AP2">
+        <v>11.86825622782301</v>
+      </c>
+      <c r="AQ2">
+        <v>12.632823006915</v>
+      </c>
+      <c r="AR2">
+        <v>15.9956380181681</v>
+      </c>
+      <c r="AS2">
+        <v>12.05001212630634</v>
+      </c>
+      <c r="AT2">
+        <v>13.42587782459588</v>
+      </c>
+      <c r="AU2">
+        <v>15.42331667639911</v>
+      </c>
+      <c r="AV2">
+        <v>13.96059406014129</v>
+      </c>
+      <c r="AW2">
+        <v>18.206818828686</v>
+      </c>
+      <c r="AX2">
+        <v>11.38126039211112</v>
+      </c>
+      <c r="AY2">
+        <v>10.79999015610421</v>
+      </c>
+      <c r="AZ2">
+        <v>15.46830546947042</v>
+      </c>
+      <c r="BA2">
+        <v>12.66743058554256</v>
+      </c>
+      <c r="BB2">
+        <v>20.42281429478626</v>
+      </c>
+      <c r="BC2">
+        <v>20.82867867449601</v>
+      </c>
+      <c r="BD2">
+        <v>36.81175982874659</v>
+      </c>
+      <c r="BE2">
+        <v>23.02572828871336</v>
+      </c>
+      <c r="BF2">
+        <v>30.59275872164901</v>
+      </c>
+      <c r="BG2">
+        <v>15.92616567081269</v>
+      </c>
+      <c r="BH2">
+        <v>11.92558687746652</v>
+      </c>
+      <c r="BI2">
+        <v>17.37752031975323</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:61">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>5.656766512978026</v>
-      </c>
       <c r="C3">
-        <v>16.64167926562817</v>
+        <v>5.323947569077972</v>
       </c>
       <c r="D3">
-        <v>15.19934113656402</v>
+        <v>11.82715611610158</v>
       </c>
       <c r="E3">
-        <v>8.421359350092985</v>
+        <v>7.32854084440246</v>
       </c>
       <c r="F3">
-        <v>9.621344310878436</v>
+        <v>10.28322142630428</v>
       </c>
       <c r="G3">
-        <v>12.94666314907653</v>
+        <v>7.717589816145866</v>
       </c>
       <c r="H3">
-        <v>11.51874912862142</v>
+        <v>9.632760752292617</v>
       </c>
       <c r="I3">
-        <v>29.41808047881652</v>
+        <v>4.530940755377628</v>
       </c>
       <c r="J3">
-        <v>14.29472003277115</v>
+        <v>5.217581335353064</v>
       </c>
       <c r="K3">
-        <v>13.87235063433898</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>9.58164446025053</v>
-      </c>
-      <c r="C4">
-        <v>10.71499083117668</v>
-      </c>
-      <c r="D4">
-        <v>6.630805881173036</v>
-      </c>
-      <c r="E4">
-        <v>7.093560311022106</v>
-      </c>
-      <c r="F4">
-        <v>7.550003622808442</v>
-      </c>
-      <c r="G4">
-        <v>18.93597699562348</v>
-      </c>
-      <c r="H4">
-        <v>17.30549840424872</v>
-      </c>
-      <c r="I4">
-        <v>20.17124924421615</v>
-      </c>
-      <c r="J4">
-        <v>15.18495528282113</v>
-      </c>
-      <c r="K4">
-        <v>21.72951007120243</v>
+        <v>9.979803858843464</v>
+      </c>
+      <c r="L3">
+        <v>12.59889564099874</v>
+      </c>
+      <c r="M3">
+        <v>8.716311989285465</v>
+      </c>
+      <c r="N3">
+        <v>12.11620937783613</v>
+      </c>
+      <c r="O3">
+        <v>5.715203150776192</v>
+      </c>
+      <c r="P3">
+        <v>6.210480644646391</v>
+      </c>
+      <c r="Q3">
+        <v>9.249298545431277</v>
+      </c>
+      <c r="R3">
+        <v>7.127592721828727</v>
+      </c>
+      <c r="S3">
+        <v>17.20334176687955</v>
+      </c>
+      <c r="T3">
+        <v>6.993184161707839</v>
+      </c>
+      <c r="U3">
+        <v>6.548719386979251</v>
+      </c>
+      <c r="V3">
+        <v>9.243807446436374</v>
+      </c>
+      <c r="W3">
+        <v>7.780018116150275</v>
+      </c>
+      <c r="X3">
+        <v>8.271185578667605</v>
+      </c>
+      <c r="Y3">
+        <v>5.263763938703582</v>
+      </c>
+      <c r="Z3">
+        <v>7.036561426076178</v>
+      </c>
+      <c r="AA3">
+        <v>13.11960242834186</v>
+      </c>
+      <c r="AB3">
+        <v>4.724470973091729</v>
+      </c>
+      <c r="AC3">
+        <v>6.153180161834471</v>
+      </c>
+      <c r="AD3">
+        <v>6.016596746159732</v>
+      </c>
+      <c r="AE3">
+        <v>11.33947171812055</v>
+      </c>
+      <c r="AF3">
+        <v>17.89114810231634</v>
+      </c>
+      <c r="AI3">
+        <v>11.78489092723065</v>
+      </c>
+      <c r="AJ3">
+        <v>12.56255535552428</v>
+      </c>
+      <c r="AK3">
+        <v>22.03237087488353</v>
+      </c>
+      <c r="AL3">
+        <v>20.94799030542924</v>
+      </c>
+      <c r="AM3">
+        <v>19.19236001310553</v>
+      </c>
+      <c r="AN3">
+        <v>26.6002395835746</v>
+      </c>
+      <c r="AO3">
+        <v>14.36351195630927</v>
+      </c>
+      <c r="AP3">
+        <v>17.38731304646939</v>
+      </c>
+      <c r="AQ3">
+        <v>16.81655622246691</v>
+      </c>
+      <c r="AS3">
+        <v>12.24636729108772</v>
+      </c>
+      <c r="AT3">
+        <v>20.73662043661355</v>
+      </c>
+      <c r="AU3">
+        <v>19.04354931450935</v>
+      </c>
+      <c r="AV3">
+        <v>20.23542471297387</v>
+      </c>
+      <c r="AW3">
+        <v>18.2325632918991</v>
+      </c>
+      <c r="AZ3">
+        <v>12.22923059357238</v>
+      </c>
+      <c r="BA3">
+        <v>14.29353269769927</v>
+      </c>
+      <c r="BB3">
+        <v>17.77594320159175</v>
+      </c>
+      <c r="BC3">
+        <v>15.0553228434431</v>
+      </c>
+      <c r="BD3">
+        <v>15.57076578649724</v>
+      </c>
+      <c r="BE3">
+        <v>15.04927432560929</v>
+      </c>
+      <c r="BF3">
+        <v>7.735758900241047</v>
+      </c>
+      <c r="BG3">
+        <v>14.73174734020808</v>
+      </c>
+      <c r="BH3">
+        <v>12.91267348000004</v>
+      </c>
+      <c r="BI3">
+        <v>16.9146056086975</v>
       </c>
     </row>
   </sheetData>
